--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2221008.473005264</v>
+        <v>2218463.286931979</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>53.58222158656053</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>113.1437618381478</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>203.1609600883624</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>300.8638984122743</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>378.8250228382216</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>54.09037106458499</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>127.004412707233</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>61.32905684098937</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,7 +1148,7 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>126.1082920576196</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>90.17215512457066</v>
       </c>
       <c r="F10" t="n">
-        <v>129.2224443473097</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>54.3264904208971</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458224</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.32649042089713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>99.9742741983368</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>11.56087338713362</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>78.6882778203391</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,16 +3004,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,10 +3718,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>194.9085394018844</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609172</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400652</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532.9757468194221</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>532.9757468194221</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>532.9757468194221</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>532.9757468194221</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>121.9898420298145</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>108.0664379684054</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>919.5755868835438</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,22 +4416,22 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.4254369407149</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V4" t="n">
-        <v>584.4254369407149</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="W4" t="n">
-        <v>584.4254369407149</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>584.4254369407149</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>584.4254369407149</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1993.54646147304</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C5" t="n">
-        <v>1993.54646147304</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D5" t="n">
-        <v>1635.28076286629</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>1249.492510268045</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>838.5066054784379</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.54646147304</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y5" t="n">
-        <v>1993.54646147304</v>
+        <v>1369.628472238665</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4659,28 +4659,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.5651556036576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>290.5651556036576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>290.5651556036576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>290.5651556036576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="W7" t="n">
-        <v>290.5651556036576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>290.5651556036576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>290.5651556036576</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>956.068743020907</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>587.1062260804954</v>
       </c>
       <c r="D8" t="n">
-        <v>135.884402556362</v>
+        <v>587.1062260804954</v>
       </c>
       <c r="E8" t="n">
-        <v>73.93586029273641</v>
+        <v>201.3179734822511</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>194.3724727330477</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>181.3250950098792</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4808,19 +4808,19 @@
         <v>478.6443448337932</v>
       </c>
       <c r="L8" t="n">
-        <v>617.9730006750465</v>
+        <v>1031.457603079992</v>
       </c>
       <c r="M8" t="n">
-        <v>848.1892110771031</v>
+        <v>1663.175414063304</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>2290.483082123151</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2460.65210744011</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2571.386432689637</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1719.673833257799</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1346.208074996719</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>956.068743020907</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>639.260235998764</v>
       </c>
       <c r="M9" t="n">
-        <v>1266.457690816945</v>
+        <v>1279.805585465869</v>
       </c>
       <c r="N9" t="n">
-        <v>1934.002090843955</v>
+        <v>1947.349985492879</v>
       </c>
       <c r="O9" t="n">
-        <v>2483.438099596678</v>
+        <v>2106.86229816164</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>651.4366193059393</v>
+        <v>269.537641420352</v>
       </c>
       <c r="C10" t="n">
-        <v>482.5004363780324</v>
+        <v>269.537641420352</v>
       </c>
       <c r="D10" t="n">
-        <v>332.3837969656967</v>
+        <v>269.537641420352</v>
       </c>
       <c r="E10" t="n">
-        <v>184.4707033833035</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>490.3302205638821</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>490.3302205638821</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>490.3302205638821</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>490.3302205638821</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>490.3302205638821</v>
       </c>
       <c r="Y10" t="n">
-        <v>833.085084136179</v>
+        <v>269.537641420352</v>
       </c>
     </row>
     <row r="11">
@@ -5030,34 +5030,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.547769317909</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C13" t="n">
-        <v>593.6115863900021</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D13" t="n">
-        <v>443.4949469776664</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>295.5818533952732</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>148.6919058973629</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="14">
@@ -5273,19 +5273,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355936</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,19 +5358,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,16 +5510,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,7 +5540,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6215,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,19 +6361,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,7 +6479,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>1031.260321675049</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>862.3241387471426</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>712.2074993348068</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>564.2944057524137</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1212.908786505289</v>
       </c>
     </row>
     <row r="32">
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797728</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7731,22 +7731,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8222,7 +8222,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>449.513533492832</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8307,10 +8307,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8456,22 +8456,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>43.95636118853432</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>91.69549323938426</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,13 +8544,13 @@
         <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>21.63976862165688</v>
+        <v>191.9420782949371</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>111.1976478713717</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788709</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>66.73277020259215</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,16 +24892,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>112.4047682534901</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,10 +25606,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>57.22910392194365</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>211.9838267404993</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>32.1518465585626</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>832204.8164023551</v>
+        <v>832204.816402355</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>832204.816402355</v>
+        <v>832204.8164023551</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>832204.816402355</v>
+        <v>832204.8164023551</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>832204.816402355</v>
+        <v>832204.8164023551</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>832204.816402355</v>
+        <v>832204.8164023551</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>832204.816402355</v>
+        <v>832204.8164023551</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26314,46 @@
         <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="G2" t="n">
-        <v>585181.2847752542</v>
-      </c>
       <c r="H2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="K2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="L2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="M2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="N2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="L2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="O2" t="n">
-        <v>585181.2847752545</v>
-      </c>
       <c r="P2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682736</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682725</v>
+        <v>5677.536566682737</v>
       </c>
       <c r="G4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="H4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="H4" t="n">
-        <v>5677.536566682751</v>
-      </c>
       <c r="I4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682757</v>
+        <v>5677.536566682747</v>
       </c>
       <c r="L4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682754</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-287494.0895893825</v>
+        <v>-287494.0895893826</v>
       </c>
       <c r="C6" t="n">
-        <v>302473.7896251623</v>
+        <v>302473.7896251624</v>
       </c>
       <c r="D6" t="n">
-        <v>146669.9835313675</v>
+        <v>146669.9835313677</v>
       </c>
       <c r="E6" t="n">
-        <v>-292671.4729961421</v>
+        <v>-292706.2109215775</v>
       </c>
       <c r="F6" t="n">
-        <v>478381.2183846646</v>
+        <v>478346.480459229</v>
       </c>
       <c r="G6" t="n">
-        <v>478381.2183846643</v>
+        <v>478346.4804592289</v>
       </c>
       <c r="H6" t="n">
-        <v>478381.2183846649</v>
+        <v>478346.4804592289</v>
       </c>
       <c r="I6" t="n">
-        <v>478381.2183846648</v>
+        <v>478346.480459229</v>
       </c>
       <c r="J6" t="n">
-        <v>301957.9991920717</v>
+        <v>301923.261266636</v>
       </c>
       <c r="K6" t="n">
-        <v>478381.2183846644</v>
+        <v>478346.4804592289</v>
       </c>
       <c r="L6" t="n">
-        <v>478381.2183846647</v>
+        <v>478346.4804592289</v>
       </c>
       <c r="M6" t="n">
-        <v>354172.707676606</v>
+        <v>354137.9697511706</v>
       </c>
       <c r="N6" t="n">
-        <v>478381.2183846646</v>
+        <v>478346.4804592286</v>
       </c>
       <c r="O6" t="n">
-        <v>478381.2183846647</v>
+        <v>478346.480459229</v>
       </c>
       <c r="P6" t="n">
-        <v>478381.2183846647</v>
+        <v>478346.4804592289</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>270.3405511777966</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,10 +27594,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>138.9938814856802</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>83.36203824822863</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>112.9202716085207</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>7.412915817831959</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>91.33067695834626</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>159.518585629358</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>320.6013132312724</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>188.932592017596</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>56.26180752199851</v>
       </c>
       <c r="F10" t="n">
-        <v>16.19860367562154</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28029,7 +28029,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31862,16 +31862,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>353.3934907042774</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,31 +32786,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,7 +33026,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,10 +33035,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,31 +33260,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>553.392502062293</v>
       </c>
       <c r="M30" t="n">
-        <v>573.8098963904297</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,31 +33494,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>742.935485982477</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>390.1398273256871</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>652.3203287778407</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>506.5895320981981</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35176,22 +35176,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>232.5416266687441</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>127.0329882106925</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
@@ -35264,13 +35264,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>131.427271174484</v>
+        <v>301.7295808477642</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>219.4190832899471</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,10 +36683,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36908,31 +36908,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>414.8381222824188</v>
       </c>
       <c r="M30" t="n">
-        <v>431.6758624684114</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>611.5937738991437</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>256.1654199113569</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>520.9786166945074</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191298</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>368.0351523183239</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
